--- a/Docs/AGV Project.xlsx
+++ b/Docs/AGV Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\Works\AGV\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE950CE8-AFC5-43A2-B61C-75CD5DF3DF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F868F5A7-75B3-47FC-95E0-CD3A9685DC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" firstSheet="2" activeTab="5" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="General Description" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -76,9 +75,6 @@
     <t>- AGV must be auto in finding path, avoiding collisions, finding charging station
 - System must ensure speed of transporting of robots associated with efficiency in moving
 - Not having expensive hardwares but still be efficient</t>
-  </si>
-  <si>
-    <t>Tech stacks</t>
   </si>
   <si>
     <t>Pricing</t>
@@ -210,6 +206,9 @@
 - Make software design diagram
 - Measure BLE signal strength and according receiving distance
 - Calculate basic positioning method base on BLE signal and laser data</t>
+  </si>
+  <si>
+    <t>Techs</t>
   </si>
 </sst>
 </file>
@@ -547,57 +546,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,13 +570,46 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,17 +639,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18610,8 +18609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3CC26E-C741-4BA0-B87C-D3EE4B2AA9E5}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -18625,47 +18624,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>9</v>
+      <c r="D1" s="12" t="s">
+        <v>47</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="324.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18683,139 +18682,139 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="19" style="40" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="40"/>
+    <col min="1" max="1" width="18.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="19" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="E1" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>41</v>
+      <c r="C2" s="16" t="s">
+        <v>46</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>47</v>
+      <c r="D2" s="15" t="s">
+        <v>42</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="E2" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="188.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
-        <v>39</v>
+      <c r="A3" s="15" t="s">
+        <v>38</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>42</v>
+      <c r="B3" s="16" t="s">
+        <v>41</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="D3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18832,10 +18831,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -18856,7 +18855,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -18878,272 +18877,266 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="13"/>
-    <col min="7" max="7" width="20.21875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="13" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="22.77734375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="21"/>
+    <col min="7" max="7" width="20.21875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="21" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="119.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-    </row>
-    <row r="2" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>2</v>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="17" t="s">
-        <v>2</v>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>10</v>
+      <c r="F4" s="40"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="119.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
+      <c r="J4" s="6" t="s">
+        <v>26</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="16" t="s">
-        <v>13</v>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="156.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>14</v>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="I6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" s="19" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="20"/>
     </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="156.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="12"/>
+    <row r="8" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="20"/>
     </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="12"/>
+    <row r="9" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="20"/>
     </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="12"/>
+    <row r="10" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="20"/>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="12"/>
+    <row r="11" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="20"/>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="12"/>
+    <row r="12" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="F1:F12"/>
     <mergeCell ref="L1:XFD12"/>
     <mergeCell ref="A13:XFD1048576"/>
     <mergeCell ref="J2:J3"/>
@@ -19151,6 +19144,12 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="F1:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19161,16 +19160,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFB7DAA-B4A5-4CCA-8A25-F20A0F718CEB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -19190,10 +19189,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -19212,10 +19211,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -19234,7 +19233,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">

--- a/Docs/AGV Project.xlsx
+++ b/Docs/AGV Project.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\Works\AGV\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F868F5A7-75B3-47FC-95E0-CD3A9685DC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6D3853-0A24-4980-AE04-D4BBC4A9E14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" activeTab="6" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="General Description" sheetId="1" r:id="rId1"/>
     <sheet name="Project Progress Tracking" sheetId="10" r:id="rId2"/>
-    <sheet name="BLE in positioning" sheetId="6" r:id="rId3"/>
-    <sheet name="BLE Stations Installing Map" sheetId="8" r:id="rId4"/>
-    <sheet name="BOM(Cost Estimation)" sheetId="7" r:id="rId5"/>
-    <sheet name="Software Design" sheetId="3" r:id="rId6"/>
-    <sheet name="Workflow - General" sheetId="5" r:id="rId7"/>
-    <sheet name="Hardware Design" sheetId="4" r:id="rId8"/>
-    <sheet name="Dashboard UI Design" sheetId="9" r:id="rId9"/>
+    <sheet name="3D Prototype" sheetId="11" r:id="rId3"/>
+    <sheet name="BLE in positioning" sheetId="6" r:id="rId4"/>
+    <sheet name="BLE UUID" sheetId="12" r:id="rId5"/>
+    <sheet name="BLE Stations Installing Map" sheetId="8" r:id="rId6"/>
+    <sheet name="BOM(Cost Estimation)" sheetId="7" r:id="rId7"/>
+    <sheet name="Software Design" sheetId="3" r:id="rId8"/>
+    <sheet name="Workflow - General" sheetId="5" r:id="rId9"/>
+    <sheet name="Hardware Design" sheetId="4" r:id="rId10"/>
+    <sheet name="Dashboard UI Design" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,9 +104,6 @@
   </si>
   <si>
     <t>Heavily relies on algorithms to calibrate robot</t>
-  </si>
-  <si>
-    <t>Heavily relies on hardware &amp; sticky line</t>
   </si>
   <si>
     <t>RFID Reader (Optional)</t>
@@ -209,6 +208,9 @@
   </si>
   <si>
     <t>Techs</t>
+  </si>
+  <si>
+    <t>Heavily relies on hardware &amp; magnetic tape</t>
   </si>
 </sst>
 </file>
@@ -540,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,6 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18609,7 +18612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3CC26E-C741-4BA0-B87C-D3EE4B2AA9E5}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -18634,7 +18637,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>4</v>
@@ -18672,12 +18675,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1730B05-BA44-498B-A672-52E8AED16741}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2472B5A1-8859-457B-B0A2-5744E76D74F7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="42"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F93199-977F-4A8F-B3EB-B08D99F4955B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -18692,50 +18738,50 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="188.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -18822,6 +18868,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4669E074-D9ED-48F1-B3D3-6713FAEB0FE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="42"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E486E-0EDB-4C59-AA26-419650F25521}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -18845,11 +18911,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E9FDFF-2DF6-4B57-91C2-29D65CCEBA68}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="43"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F60611-67FD-44D9-A32D-3F323E790976}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18867,12 +18951,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406731FD-4230-4215-B89B-AF378A75C0AD}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -18975,34 +19059,34 @@
         <v>13</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" s="19" customFormat="1" ht="156.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="40"/>
       <c r="G5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -19010,25 +19094,25 @@
     </row>
     <row r="6" spans="1:12" s="19" customFormat="1" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="40"/>
       <c r="G6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -19036,7 +19120,7 @@
     </row>
     <row r="7" spans="1:12" s="19" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -19044,7 +19128,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="40"/>
       <c r="G7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -19156,7 +19240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFB7DAA-B4A5-4CCA-8A25-F20A0F718CEB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19179,7 +19263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FB05CB-EC08-4DFD-9921-2576E0BA2D0A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19199,47 +19283,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1730B05-BA44-498B-A672-52E8AED16741}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1048576"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2472B5A1-8859-457B-B0A2-5744E76D74F7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="42"/>
-  </cols>
-  <sheetData/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1048576"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Docs/AGV Project.xlsx
+++ b/Docs/AGV Project.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\Works\AGV\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6D3853-0A24-4980-AE04-D4BBC4A9E14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEC255A-5CB9-48AF-9E53-3C36C88E9B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" activeTab="6" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" activeTab="5" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="General Description" sheetId="1" r:id="rId1"/>
     <sheet name="Project Progress Tracking" sheetId="10" r:id="rId2"/>
     <sheet name="3D Prototype" sheetId="11" r:id="rId3"/>
     <sheet name="BLE in positioning" sheetId="6" r:id="rId4"/>
-    <sheet name="BLE UUID" sheetId="12" r:id="rId5"/>
-    <sheet name="BLE Stations Installing Map" sheetId="8" r:id="rId6"/>
+    <sheet name="BLE Stations Installing Map" sheetId="8" r:id="rId5"/>
+    <sheet name="BLE GATT" sheetId="12" r:id="rId6"/>
     <sheet name="BOM(Cost Estimation)" sheetId="7" r:id="rId7"/>
     <sheet name="Software Design" sheetId="3" r:id="rId8"/>
     <sheet name="Workflow - General" sheetId="5" r:id="rId9"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Description</t>
   </si>
@@ -212,6 +212,48 @@
   <si>
     <t>Heavily relies on hardware &amp; magnetic tape</t>
   </si>
+  <si>
+    <t>Beacon Name</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Characteristics</t>
+  </si>
+  <si>
+    <t>Descriptor</t>
+  </si>
+  <si>
+    <t>Beacon-1</t>
+  </si>
+  <si>
+    <t>Beacon-2</t>
+  </si>
+  <si>
+    <t>Beacon-3</t>
+  </si>
+  <si>
+    <t>df8b3daf-6383-4b5e-9d18-23e7d042843d</t>
+  </si>
+  <si>
+    <t>c11a9227-4f05-49ea-b0dc-3913507bf42a </t>
+  </si>
+  <si>
+    <t>c8867ddf-e16e-406c-bf84-7c73c72ec855</t>
+  </si>
+  <si>
+    <t>f4a46f10-d849-47d1-9738-ba3bdd7a461f</t>
+  </si>
+  <si>
+    <t>3de4e477-75c1-4c72-88cb-f609a2cab2b3</t>
+  </si>
+  <si>
+    <t>4710acb1-ab86-4ea2-aea1-84237e7e130c</t>
+  </si>
 </sst>
 </file>
 
@@ -271,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -538,11 +580,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,6 +662,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,10 +741,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18685,10 +18784,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -18707,7 +18806,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -18877,7 +18976,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -18891,16 +18990,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E486E-0EDB-4C59-AA26-419650F25521}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -18912,24 +19011,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E9FDFF-2DF6-4B57-91C2-29D65CCEBA68}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="43"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F60611-67FD-44D9-A32D-3F323E790976}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -18939,7 +19020,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -18951,93 +19032,175 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E9FDFF-2DF6-4B57-91C2-29D65CCEBA68}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="45" style="43" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="43" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="43" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406731FD-4230-4215-B89B-AF378A75C0AD}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="21"/>
-    <col min="7" max="7" width="20.21875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="21" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="22.77734375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="22"/>
+    <col min="7" max="7" width="20.21875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:12" s="20" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
     </row>
-    <row r="2" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="20"/>
+    <row r="3" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="119.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
+    <row r="4" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -19050,8 +19213,8 @@
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
@@ -19064,9 +19227,9 @@
       <c r="K4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" ht="156.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="20" customFormat="1" ht="156.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -19078,7 +19241,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="40"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
@@ -19090,9 +19253,9 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="20"/>
+      <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="1:12" s="19" customFormat="1" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="20" customFormat="1" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -19104,7 +19267,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
@@ -19116,9 +19279,9 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="1:12" s="19" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="20" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -19126,7 +19289,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="40"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
@@ -19134,90 +19297,90 @@
       <c r="I7" s="6"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="20"/>
+      <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="20"/>
+      <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="20"/>
+      <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="20"/>
+      <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="20"/>
+      <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="41"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="20"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -19250,10 +19413,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -19273,10 +19436,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>

--- a/Docs/AGV Project.xlsx
+++ b/Docs/AGV Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\Works\AGV\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEC255A-5CB9-48AF-9E53-3C36C88E9B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90AF4BE-55CA-4A46-A42E-4CD42346A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" activeTab="5" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" firstSheet="3" activeTab="7" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="General Description" sheetId="1" r:id="rId1"/>
@@ -663,6 +663,12 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,6 +677,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,27 +761,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18712,7 +18712,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -18784,10 +18784,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="20" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -18806,7 +18806,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -18822,7 +18822,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -18976,7 +18976,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -18990,16 +18990,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E486E-0EDB-4C59-AA26-419650F25521}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="20" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -19014,13 +19014,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F60611-67FD-44D9-A32D-3F323E790976}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -19036,71 +19036,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E9FDFF-2DF6-4B57-91C2-29D65CCEBA68}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="45" style="43" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" style="43" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="43" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="43"/>
+    <col min="1" max="1" width="18.5546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="45" style="17" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -19124,83 +19124,83 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="22"/>
-    <col min="7" max="7" width="20.21875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="22" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="22.77734375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="29"/>
+    <col min="7" max="7" width="20.21875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="29" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:12" s="27" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="37" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
     </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:12" s="27" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="24" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="21"/>
+    <row r="3" spans="1:12" s="27" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
+    <row r="4" spans="1:12" s="27" customFormat="1" ht="119.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="32"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -19213,8 +19213,8 @@
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="25"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
@@ -19227,9 +19227,9 @@
       <c r="K4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" s="20" customFormat="1" ht="156.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="27" customFormat="1" ht="156.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -19241,7 +19241,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="41"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
@@ -19253,9 +19253,9 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="21"/>
+      <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" s="20" customFormat="1" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="27" customFormat="1" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -19267,7 +19267,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="41"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
@@ -19279,9 +19279,9 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="21"/>
+      <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12" s="20" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="27" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -19289,7 +19289,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="41"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
@@ -19297,90 +19297,90 @@
       <c r="I7" s="6"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="21"/>
+      <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="27" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="41"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="21"/>
+      <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="27" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="41"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="27" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="41"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="27" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="41"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:12" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="27" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -19407,16 +19407,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFB7DAA-B4A5-4CCA-8A25-F20A0F718CEB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="20" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -19436,10 +19436,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="20" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>

--- a/Docs/AGV Project.xlsx
+++ b/Docs/AGV Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\Works\AGV\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90AF4BE-55CA-4A46-A42E-4CD42346A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19402094-3A8F-43D0-B5B7-70A3A620CBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" firstSheet="3" activeTab="7" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
   </bookViews>

--- a/Docs/AGV Project.xlsx
+++ b/Docs/AGV Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\Works\AGV\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19402094-3A8F-43D0-B5B7-70A3A620CBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549B14EC-1232-4D5B-9C9D-3DB445953E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" firstSheet="3" activeTab="7" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" firstSheet="3" activeTab="5" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="General Description" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Description</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Characteristics</t>
   </si>
   <si>
-    <t>Descriptor</t>
-  </si>
-  <si>
     <t>Beacon-1</t>
   </si>
   <si>
@@ -253,6 +250,18 @@
   </si>
   <si>
     <t>4710acb1-ab86-4ea2-aea1-84237e7e130c</t>
+  </si>
+  <si>
+    <t>Default Broadcasted Message</t>
+  </si>
+  <si>
+    <t>Beacon-1 Message</t>
+  </si>
+  <si>
+    <t>Beacon-2 Message</t>
+  </si>
+  <si>
+    <t>Beacon-3 Message</t>
   </si>
 </sst>
 </file>
@@ -19036,8 +19045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E9FDFF-2DF6-4B57-91C2-29D65CCEBA68}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -19045,7 +19054,7 @@
     <col min="1" max="1" width="18.5546875" style="17" customWidth="1"/>
     <col min="2" max="2" width="45" style="17" customWidth="1"/>
     <col min="3" max="3" width="38.88671875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="17" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
@@ -19059,7 +19068,7 @@
       <c r="C1" s="23"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
       <c r="B2" s="18" t="s">
         <v>50</v>
@@ -19068,40 +19077,49 @@
         <v>51</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>57</v>
+      <c r="D3" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>59</v>
+      <c r="D4" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>61</v>
+      <c r="D5" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -19407,7 +19425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFB7DAA-B4A5-4CCA-8A25-F20A0F718CEB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Docs/AGV Project.xlsx
+++ b/Docs/AGV Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\Works\AGV\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549B14EC-1232-4D5B-9C9D-3DB445953E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A455D6-83FE-4580-8F95-DE0183859B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" firstSheet="3" activeTab="5" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" firstSheet="4" activeTab="10" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="General Description" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="BLE Stations Installing Map" sheetId="8" r:id="rId5"/>
     <sheet name="BLE GATT" sheetId="12" r:id="rId6"/>
     <sheet name="BOM(Cost Estimation)" sheetId="7" r:id="rId7"/>
-    <sheet name="Software Design" sheetId="3" r:id="rId8"/>
-    <sheet name="Workflow - General" sheetId="5" r:id="rId9"/>
-    <sheet name="Hardware Design" sheetId="4" r:id="rId10"/>
-    <sheet name="Dashboard UI Design" sheetId="9" r:id="rId11"/>
+    <sheet name="Software Designs" sheetId="3" r:id="rId8"/>
+    <sheet name="Workflows" sheetId="5" r:id="rId9"/>
+    <sheet name="Hardware Designs" sheetId="4" r:id="rId10"/>
+    <sheet name="Dashboard UI Designs" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -630,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,6 +771,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4107,7 +4110,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>This part temporily is not applied on our project</a:t>
+            <a:t>This part temporily is not applied in our project</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18333,12 +18336,253 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C8A283-91B2-1FD7-E899-EBE5726FA55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257174" y="714375"/>
+          <a:ext cx="8448676" cy="2978510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="828675" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12D1745-8387-4D30-9AF0-A924A59547CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="238125"/>
+          <a:ext cx="828675" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>General</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628650" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9F51D2-6909-4CC6-A690-5848B56E5CA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257176" y="3838575"/>
+          <a:ext cx="628650" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>AGV</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B318E499-F676-3AB4-621B-26A62BD54F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238124" y="4333874"/>
+          <a:ext cx="11944351" cy="12487275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3248025" cy="328295"/>
     <xdr:sp macro="" textlink="">
@@ -18354,7 +18598,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="276225"/>
+          <a:off x="190500" y="219075"/>
           <a:ext cx="3248025" cy="328295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18809,7 +19053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2472B5A1-8859-457B-B0A2-5744E76D74F7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19045,8 +19289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E9FDFF-2DF6-4B57-91C2-29D65CCEBA68}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -19448,20 +19692,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FB05CB-EC08-4DFD-9921-2576E0BA2D0A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="16384" width="8.88671875" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/AGV Project.xlsx
+++ b/Docs/AGV Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\Works\AGV\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A455D6-83FE-4580-8F95-DE0183859B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE265D3-D71D-4495-BE43-5A32EA6C8781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" firstSheet="4" activeTab="10" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" firstSheet="4" activeTab="8" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="General Description" sheetId="1" r:id="rId1"/>
@@ -19053,7 +19053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2472B5A1-8859-457B-B0A2-5744E76D74F7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19380,7 +19380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406731FD-4230-4215-B89B-AF378A75C0AD}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -19669,7 +19669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFB7DAA-B4A5-4CCA-8A25-F20A0F718CEB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19692,7 +19692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FB05CB-EC08-4DFD-9921-2576E0BA2D0A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Docs/AGV Project.xlsx
+++ b/Docs/AGV Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\Works\AGV\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pi Rover Dropbox\Duy Tan Nguyen Thanh\Works\AGV\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE265D3-D71D-4495-BE43-5A32EA6C8781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33B44E3-46B4-445A-A86A-1555EB456653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" firstSheet="4" activeTab="8" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" firstSheet="4" activeTab="5" xr2:uid="{3153E09C-E851-44BE-BE0B-53D6377AEEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="General Description" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>Description</t>
   </si>
@@ -262,6 +262,42 @@
   </si>
   <si>
     <t>Beacon-3 Message</t>
+  </si>
+  <si>
+    <t>Beacon-4</t>
+  </si>
+  <si>
+    <t>Beacon-5</t>
+  </si>
+  <si>
+    <t>Beacon-6</t>
+  </si>
+  <si>
+    <t>cd932085-9286-4138-9cd9-9956707e3f65</t>
+  </si>
+  <si>
+    <t>41ab2626-7129-44c2-ac20-3069737ec350</t>
+  </si>
+  <si>
+    <t>b7078b93-019f-4000-be73-93b852dbdcba</t>
+  </si>
+  <si>
+    <t>79d66fc5-0af3-47fe-b0b1-4b7759063615</t>
+  </si>
+  <si>
+    <t>858daf11-7d33-4f5c-b8b5-36c81841f7ae</t>
+  </si>
+  <si>
+    <t>d174dab1-829c-4cf8-b9b2-91c59ebea00e</t>
+  </si>
+  <si>
+    <t>Beacon-4 Message</t>
+  </si>
+  <si>
+    <t>Beacon-5 Message</t>
+  </si>
+  <si>
+    <t>Beacon-6 Message</t>
   </si>
 </sst>
 </file>
@@ -771,7 +807,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -19287,10 +19323,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E9FDFF-2DF6-4B57-91C2-29D65CCEBA68}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -19364,6 +19400,48 @@
       </c>
       <c r="D5" s="17" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -19692,7 +19770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FB05CB-EC08-4DFD-9921-2576E0BA2D0A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19701,7 +19779,7 @@
     <col min="1" max="16384" width="8.88671875" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
